--- a/TestData/TC1197andTC1198AddOpportunityInOpportunityHome.xlsx
+++ b/TestData/TC1197andTC1198AddOpportunityInOpportunityHome.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -32,67 +32,67 @@
     <t>SFCAO User</t>
   </si>
   <si>
+    <t>Advisory</t>
+  </si>
+  <si>
+    <t>Transaction Opinions</t>
+  </si>
+  <si>
+    <t>Buyside</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Financial Restructuring - Creditor / Debtor</t>
+  </si>
+  <si>
+    <t>Capital Markets</t>
+  </si>
+  <si>
+    <t>Financial Restructuring - Other</t>
+  </si>
+  <si>
+    <t>Dispute</t>
+  </si>
+  <si>
+    <t>Fund Opinions</t>
+  </si>
+  <si>
+    <t>Portfolio Valuation &amp; Advisory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Sellside</t>
+  </si>
+  <si>
+    <t>Private Funds Advisory</t>
+  </si>
+  <si>
+    <t>Strategic Consulting</t>
+  </si>
+  <si>
+    <t>Tech+IP Advisory</t>
+  </si>
+  <si>
+    <t>TAS - Due Diligence Services</t>
+  </si>
+  <si>
+    <t>TFR - Tax and Financial Reporting</t>
+  </si>
+  <si>
+    <t>ProductLines</t>
+  </si>
+  <si>
+    <t>{"Advisory","Transaction Opinions","Buyside", "Other", "Other", "Other", "Advisory", "Financial Restructuring - Creditor / Debtor", "Capital Markets", "Capital Markets", "Financial Restructuring - Creditor / Debtor", "Advisory", "Financial Restructuring - Other", "Financial Restructuring - Other", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Financial Restructuring - Other", "Capital Markets", "Other", "Other", "Advisory", "Transaction Opinions", "Other", "Dispute", "Fund Opinions", "Fund Opinions", "Fund Opinions", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Transaction Opinions", " ","Capital Markets", "Other", "Transaction Opinions", "Advisory", "Advisory", "Advisory", "Other", "Other", "Capital Markets", "Financial Restructuring - Other", "Dispute", "Sellside", "Advisory", "Capital Markets", "Financial Restructuring - Other", " ","Private Funds Advisory", "Advisory", "Financial Restructuring - Other", "Other", "Sellside", "Transaction Opinions"," ", "Advisory", "Advisory", "Buyside", "Sellside", "Advisory", "Strategic Consulting", "Capital Markets", "Tech+IP Advisory", "Tech+IP Advisory", "Advisory", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "Advisory", "Tech+IP Advisory", "Advisory", "Tech+IP Advisory", "Advisory", "Tech+IP Advisory", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting" };</t>
+  </si>
+  <si>
+    <t>{"Advisory", "Transaction Opinions", "Buyside", "Other", "Other", "Other", "Advisory", "Financial Restructuring - Creditor / Debtor", "Capital Markets", "Capital Markets", "Financial Restructuring - Creditor / Debtor", "Advisory", "Financial Restructuring - Other", "Financial Restructuring - Other", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Financial Restructuring - Other", "Capital Markets", "Other", "Other", "Advisory", "Transaction Opinions", "Other", "Dispute", "Fund Opinions", "Fund Opinions", "Fund Opinions", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Transaction Opinions", "Capital Markets", "Other", "Transaction Opinions", "Advisory", "Advisory", "Advisory", "Other", "Other", "Capital Markets", "Financial Restructuring - Other", "Dispute", "Sellside", "Advisory", "Capital Markets", "Financial Restructuring - Other", "Private Funds Advisory", "Advisory", "Financial Restructuring - Other", "Other", "Sellside", "Transaction Opinions", "Advisory", "Advisory", "Buyside", "Sellside", "Advisory", "Strategic Consulting", "Capital Markets", "Tech+IP Advisory", "Tech+IP Advisory", "Advisory", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "Advisory", "Tech+IP Advisory", "Advisory", "Tech+IP Advisory", "Advisory", "Tech+IP Advisory", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting" };</t>
+  </si>
+  <si>
     <t>Emre Abale</t>
-  </si>
-  <si>
-    <t>Advisory</t>
-  </si>
-  <si>
-    <t>Transaction Opinions</t>
-  </si>
-  <si>
-    <t>Buyside</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Financial Restructuring - Creditor / Debtor</t>
-  </si>
-  <si>
-    <t>Capital Markets</t>
-  </si>
-  <si>
-    <t>Financial Restructuring - Other</t>
-  </si>
-  <si>
-    <t>Dispute</t>
-  </si>
-  <si>
-    <t>Fund Opinions</t>
-  </si>
-  <si>
-    <t>Portfolio Valuation &amp; Advisory</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Sellside</t>
-  </si>
-  <si>
-    <t>Private Funds Advisory</t>
-  </si>
-  <si>
-    <t>Strategic Consulting</t>
-  </si>
-  <si>
-    <t>Tech+IP Advisory</t>
-  </si>
-  <si>
-    <t>TAS - Due Diligence Services</t>
-  </si>
-  <si>
-    <t>TFR - Tax and Financial Reporting</t>
-  </si>
-  <si>
-    <t>ProductLines</t>
-  </si>
-  <si>
-    <t>{"Advisory","Transaction Opinions","Buyside", "Other", "Other", "Other", "Advisory", "Financial Restructuring - Creditor / Debtor", "Capital Markets", "Capital Markets", "Financial Restructuring - Creditor / Debtor", "Advisory", "Financial Restructuring - Other", "Financial Restructuring - Other", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Financial Restructuring - Other", "Capital Markets", "Other", "Other", "Advisory", "Transaction Opinions", "Other", "Dispute", "Fund Opinions", "Fund Opinions", "Fund Opinions", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Transaction Opinions", " ","Capital Markets", "Other", "Transaction Opinions", "Advisory", "Advisory", "Advisory", "Other", "Other", "Capital Markets", "Financial Restructuring - Other", "Dispute", "Sellside", "Advisory", "Capital Markets", "Financial Restructuring - Other", " ","Private Funds Advisory", "Advisory", "Financial Restructuring - Other", "Other", "Sellside", "Transaction Opinions"," ", "Advisory", "Advisory", "Buyside", "Sellside", "Advisory", "Strategic Consulting", "Capital Markets", "Tech+IP Advisory", "Tech+IP Advisory", "Advisory", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "Advisory", "Tech+IP Advisory", "Advisory", "Tech+IP Advisory", "Advisory", "Tech+IP Advisory", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting" };</t>
-  </si>
-  <si>
-    <t>{"Advisory", "Transaction Opinions", "Buyside", "Other", "Other", "Other", "Advisory", "Financial Restructuring - Creditor / Debtor", "Capital Markets", "Capital Markets", "Financial Restructuring - Creditor / Debtor", "Advisory", "Financial Restructuring - Other", "Financial Restructuring - Other", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Financial Restructuring - Other", "Capital Markets", "Other", "Other", "Advisory", "Transaction Opinions", "Other", "Dispute", "Fund Opinions", "Fund Opinions", "Fund Opinions", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Transaction Opinions", "Capital Markets", "Other", "Transaction Opinions", "Advisory", "Advisory", "Advisory", "Other", "Other", "Capital Markets", "Financial Restructuring - Other", "Dispute", "Sellside", "Advisory", "Capital Markets", "Financial Restructuring - Other", "Private Funds Advisory", "Advisory", "Financial Restructuring - Other", "Other", "Sellside", "Transaction Opinions", "Advisory", "Advisory", "Buyside", "Sellside", "Advisory", "Strategic Consulting", "Capital Markets", "Tech+IP Advisory", "Tech+IP Advisory", "Advisory", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "Advisory", "Tech+IP Advisory", "Advisory", "Tech+IP Advisory", "Advisory", "Tech+IP Advisory", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting" };</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -439,7 +441,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -466,547 +468,547 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1027,12 +1029,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TC1197andTC1198AddOpportunityInOpportunityHome.xlsx
+++ b/TestData/TC1197andTC1198AddOpportunityInOpportunityHome.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
     <t>SFCAO User</t>
   </si>
   <si>
+    <t>Emre Abale</t>
+  </si>
+  <si>
     <t>Advisory</t>
   </si>
   <si>
@@ -90,9 +93,6 @@
   </si>
   <si>
     <t>{"Advisory", "Transaction Opinions", "Buyside", "Other", "Other", "Other", "Advisory", "Financial Restructuring - Creditor / Debtor", "Capital Markets", "Capital Markets", "Financial Restructuring - Creditor / Debtor", "Advisory", "Financial Restructuring - Other", "Financial Restructuring - Other", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Dispute", "Financial Restructuring - Other", "Capital Markets", "Other", "Other", "Advisory", "Transaction Opinions", "Other", "Dispute", "Fund Opinions", "Fund Opinions", "Fund Opinions", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Portfolio Valuation &amp; Advisory", "Transaction Opinions", "Capital Markets", "Other", "Transaction Opinions", "Advisory", "Advisory", "Advisory", "Other", "Other", "Capital Markets", "Financial Restructuring - Other", "Dispute", "Sellside", "Advisory", "Capital Markets", "Financial Restructuring - Other", "Private Funds Advisory", "Advisory", "Financial Restructuring - Other", "Other", "Sellside", "Transaction Opinions", "Advisory", "Advisory", "Buyside", "Sellside", "Advisory", "Strategic Consulting", "Capital Markets", "Tech+IP Advisory", "Tech+IP Advisory", "Advisory", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "TAS - Due Diligence Services", "Advisory", "Tech+IP Advisory", "Advisory", "Tech+IP Advisory", "Advisory", "Tech+IP Advisory", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting", "TFR - Tax and Financial Reporting" };</t>
-  </si>
-  <si>
-    <t>Emre Abale</t>
   </si>
 </sst>
 </file>
@@ -421,9 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -441,7 +439,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -468,547 +466,547 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1029,12 +1027,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
